--- a/journeyConfig/event模板信息.xlsx
+++ b/journeyConfig/event模板信息.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>_id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>eventIcon</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>95b8d8e6387f49d0ae1446a37181427e</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>duero-icon-22999919-xiugai</t>
   </si>
   <si>
+    <t>c89543c365074589a31c3f9f82f2164c</t>
+  </si>
+  <si>
     <t>794c3978e1464d0dabd972710fca9e07</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>duero-icon-22999919-guiji</t>
   </si>
   <si>
+    <t>8abcf2f8ad2c4249b9933a150d14c637</t>
+  </si>
+  <si>
     <t>4829bb966a384d7a8688496c66cf90be</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
     <t>companyTransfer</t>
   </si>
   <si>
+    <t>f234587d7b8843dc8b1aec269fdc32d1</t>
+  </si>
+  <si>
     <t>f2c43937503643a1941e0f8fe1a0caab</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>companyCreated</t>
   </si>
   <si>
+    <t>9783fa25b07c4cbea1f26fdd11c5f490</t>
+  </si>
+  <si>
     <t>aab0cfcd07574e73a7f98b7a54785255</t>
   </si>
   <si>
@@ -107,6 +122,9 @@
     <t>companyUpdated</t>
   </si>
   <si>
+    <t>e9027f25037f41b09cef296c41c6204e</t>
+  </si>
+  <si>
     <t>9ae135087a7448e19e1b3cac06c6f436</t>
   </si>
   <si>
@@ -116,6 +134,9 @@
     <t>companyDeleted</t>
   </si>
   <si>
+    <t>13e25af3b023446f94dbfaa676961cf4</t>
+  </si>
+  <si>
     <t>bc88f8196bee4fa0b1b97d2fd24b58b2</t>
   </si>
   <si>
@@ -125,6 +146,9 @@
     <t>companyRestore</t>
   </si>
   <si>
+    <t>2b7c41d37a904b97a75f9436cb1df243</t>
+  </si>
+  <si>
     <t>335c1dc13024481d989ec44e74218837</t>
   </si>
   <si>
@@ -134,6 +158,9 @@
     <t>companyMerged</t>
   </si>
   <si>
+    <t>9744badfae5246c2b2294b06f9a50064</t>
+  </si>
+  <si>
     <t>2375d390a7ca45158e4b224596076cb0</t>
   </si>
   <si>
@@ -150,6 +177,9 @@
   </si>
   <si>
     <t>duero-icon-22999919-douyin</t>
+  </si>
+  <si>
+    <t>8af0a754d4d442ceb1108ed64f54fda1</t>
   </si>
   <si>
     <t>trailName</t>
@@ -475,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -624,13 +654,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +746,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +770,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,28 +791,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,17 +1114,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1021,10 +1151,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1263,12 +1393,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1545,7 +1675,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1572,10 +1702,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1820,7 +1950,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1833,8 +1963,8 @@
     <col min="5" max="5" width="13.1719" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6719" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="9" width="35.6719" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1">
@@ -1862,239 +1992,269 @@
       <c r="H1" t="s" s="5">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s" s="6">
+      <c r="A2" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="B2" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="8">
+      <c r="C2" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="9">
+      <c r="D2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="F2" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="G2" t="s" s="7">
         <v>14</v>
       </c>
+      <c r="H2" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="10">
+      <c r="A3" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="11">
+      <c r="I4" t="s" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="G3" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="13">
+      <c r="F5" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="G4" t="s" s="6">
+      <c r="F6" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="H4" t="s" s="6">
+      <c r="G6" t="s" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s" s="11">
+      <c r="H6" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="F7" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="G7" t="s" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s" s="13">
+      <c r="H7" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="G6" t="s" s="6">
+      <c r="F8" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="H6" t="s" s="6">
+      <c r="G8" t="s" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s" s="11">
+      <c r="H8" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="G7" t="s" s="8">
+      <c r="F9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="H7" t="s" s="12">
+      <c r="G9" t="s" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s" s="6">
+      <c r="H9" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="H8" t="s" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s" s="6">
-        <v>45</v>
+      <c r="G10" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s" s="7">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2111,672 +2271,888 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="47.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="14" customWidth="1"/>
-    <col min="3" max="5" width="10.8516" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.6719" style="14" customWidth="1"/>
-    <col min="7" max="7" width="36.6719" style="14" customWidth="1"/>
-    <col min="8" max="8" width="28.8516" style="14" customWidth="1"/>
-    <col min="9" max="9" width="34.3516" style="14" customWidth="1"/>
-    <col min="10" max="10" width="62.6719" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="10.8516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="47.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="16" customWidth="1"/>
+    <col min="3" max="5" width="10.8516" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.6719" style="16" customWidth="1"/>
+    <col min="7" max="7" width="36.6719" style="16" customWidth="1"/>
+    <col min="8" max="8" width="28.8516" style="16" customWidth="1"/>
+    <col min="9" max="9" width="34.3516" style="16" customWidth="1"/>
+    <col min="10" max="10" width="62.6719" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="10.8516" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="15">
+      <c r="A1" t="s" s="17">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s" s="15">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s" s="15">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s" s="15">
+      <c r="B1" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s" s="17">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s" s="17">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s" s="17">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s" s="17">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s" s="17">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s" s="17">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="18">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s" s="19">
+        <v>66</v>
+      </c>
+      <c r="C2" s="20">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s" s="18">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s" s="18">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s" s="18">
+        <v>71</v>
+      </c>
+      <c r="I2" t="b" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="21">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="22">
+        <v>74</v>
+      </c>
+      <c r="C3" s="23">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s" s="21">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s" s="21">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="21">
+        <v>76</v>
+      </c>
+      <c r="I3" t="b" s="23">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="18">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s" s="18">
+        <v>78</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s" s="18">
+        <v>82</v>
+      </c>
+      <c r="I4" t="b" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" t="s" s="21">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s" s="21">
+        <v>82</v>
+      </c>
+      <c r="I5" t="b" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" t="s" s="18">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s" s="18">
+        <v>87</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="18">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s" s="18">
+        <v>82</v>
+      </c>
+      <c r="I6" t="b" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" t="s" s="21">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s" s="21">
+        <v>90</v>
+      </c>
+      <c r="C7" s="23">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s" s="21">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s" s="21">
+        <v>82</v>
+      </c>
+      <c r="I7" t="b" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" t="s" s="18">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s" s="18">
+        <v>93</v>
+      </c>
+      <c r="C8" s="20">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s" s="18">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s" s="18">
+        <v>82</v>
+      </c>
+      <c r="I8" t="b" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="C9" s="23">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s" s="21">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s" s="21">
+        <v>82</v>
+      </c>
+      <c r="I9" t="b" s="23">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" t="s" s="18">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="C10" s="20">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s" s="18">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s" s="18">
+        <v>82</v>
+      </c>
+      <c r="I10" t="b" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="21">
         <v>52</v>
       </c>
-      <c r="I1" t="s" s="15">
-        <v>53</v>
-      </c>
-      <c r="J1" t="s" s="15">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="16">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="C2" s="18">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="16">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s" s="16">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s" s="16">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s" s="16">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s" s="16">
-        <v>61</v>
-      </c>
-      <c r="I2" t="b" s="18">
+      <c r="C11" s="23">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s" s="21">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s" s="21">
+        <v>98</v>
+      </c>
+      <c r="H11" t="s" s="21">
+        <v>99</v>
+      </c>
+      <c r="I11" t="b" s="23">
         <v>0</v>
       </c>
-      <c r="J2" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="19">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s" s="20">
-        <v>64</v>
-      </c>
-      <c r="C3" s="21">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s" s="19">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s" s="19">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s" s="19">
-        <v>66</v>
-      </c>
-      <c r="I3" t="b" s="21">
+      <c r="J11" t="s" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" t="s" s="18">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s" s="19">
+        <v>101</v>
+      </c>
+      <c r="C12" s="20">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s" s="18">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s" s="18">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s" s="18">
+        <v>104</v>
+      </c>
+      <c r="I12" t="b" s="20">
         <v>0</v>
       </c>
-      <c r="J3" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="16">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s" s="16">
+      <c r="J12" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" t="s" s="21">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s" s="22">
+        <v>106</v>
+      </c>
+      <c r="C13" s="23">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="21">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s" s="21">
         <v>68</v>
       </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="16">
-        <v>69</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s" s="16">
-        <v>71</v>
-      </c>
-      <c r="H4" t="s" s="16">
+      <c r="F13" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="21">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s" s="21">
+        <v>109</v>
+      </c>
+      <c r="I13" t="b" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s" s="21">
         <v>72</v>
       </c>
-      <c r="I4" t="b" s="18">
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" t="s" s="18">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s" s="19">
+        <v>111</v>
+      </c>
+      <c r="C14" s="20">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="18">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s" s="18">
+        <v>112</v>
+      </c>
+      <c r="H14" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="I14" t="b" s="20">
         <v>0</v>
       </c>
-      <c r="J4" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="19">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s" s="19">
-        <v>74</v>
-      </c>
-      <c r="C5" s="21">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="19">
-        <v>69</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" t="s" s="19">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s" s="19">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s" s="19">
+      <c r="J14" t="s" s="18">
         <v>72</v>
       </c>
-      <c r="I5" t="b" s="21">
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" t="s" s="21">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s" s="22">
+        <v>115</v>
+      </c>
+      <c r="C15" s="23">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="21">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s" s="21">
+        <v>117</v>
+      </c>
+      <c r="I15" t="b" s="23">
         <v>0</v>
       </c>
-      <c r="J5" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s" s="16">
-        <v>77</v>
-      </c>
-      <c r="C6" s="18">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="16">
-        <v>69</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s" s="16">
-        <v>78</v>
-      </c>
-      <c r="H6" t="s" s="16">
+      <c r="J15" t="s" s="21">
         <v>72</v>
       </c>
-      <c r="I6" t="b" s="18">
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" t="s" s="18">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s" s="19">
+        <v>119</v>
+      </c>
+      <c r="C16" s="20">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s" s="18">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s" s="18">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s" s="18">
+        <v>121</v>
+      </c>
+      <c r="I16" t="b" s="20">
         <v>0</v>
       </c>
-      <c r="J6" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="19">
+      <c r="J16" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" t="s" s="21">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s" s="22">
+        <v>123</v>
+      </c>
+      <c r="C17" s="23">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s" s="21">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s" s="21">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s" s="21">
+        <v>126</v>
+      </c>
+      <c r="I17" t="b" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" t="s" s="18">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s" s="19">
+        <v>128</v>
+      </c>
+      <c r="C18" s="20">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="18">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="18">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s" s="18">
+        <v>130</v>
+      </c>
+      <c r="I18" t="b" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" t="s" s="21">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="21">
+        <v>132</v>
+      </c>
+      <c r="C19" s="23">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s" s="21">
         <v>79</v>
       </c>
-      <c r="B7" t="s" s="19">
+      <c r="E19" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s" s="21">
         <v>80</v>
       </c>
-      <c r="C7" s="21">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="19">
-        <v>69</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" t="s" s="19">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s" s="19">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s" s="19">
+      <c r="G19" t="s" s="21">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s" s="21">
+        <v>134</v>
+      </c>
+      <c r="I19" t="b" s="23">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s" s="21">
         <v>72</v>
       </c>
-      <c r="I7" t="b" s="21">
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" t="s" s="18">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s" s="18">
+        <v>136</v>
+      </c>
+      <c r="C20" s="20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" t="s" s="18">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s" s="18">
+        <v>138</v>
+      </c>
+      <c r="H20" t="s" s="18">
+        <v>138</v>
+      </c>
+      <c r="I20" t="b" s="20">
         <v>0</v>
       </c>
-      <c r="J7" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="16">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="C8" s="18">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>69</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s" s="16">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s" s="16">
+      <c r="J20" t="s" s="18">
         <v>72</v>
       </c>
-      <c r="I8" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="19">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="C9" s="21">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="19">
-        <v>69</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" t="s" s="19">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s" s="19">
-        <v>85</v>
-      </c>
-      <c r="H9" t="s" s="19">
-        <v>72</v>
-      </c>
-      <c r="I9" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="16">
-        <v>11</v>
-      </c>
-      <c r="C10" s="18">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="16">
-        <v>69</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s" s="16">
-        <v>86</v>
-      </c>
-      <c r="H10" t="s" s="16">
-        <v>72</v>
-      </c>
-      <c r="I10" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="C11" s="21">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s" s="19">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s" s="19">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s" s="19">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s" s="19">
-        <v>88</v>
-      </c>
-      <c r="H11" t="s" s="19">
-        <v>89</v>
-      </c>
-      <c r="I11" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="16">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s" s="17">
-        <v>91</v>
-      </c>
-      <c r="C12" s="18">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="16">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s" s="16">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s" s="16">
-        <v>92</v>
-      </c>
-      <c r="G12" t="s" s="16">
-        <v>93</v>
-      </c>
-      <c r="H12" t="s" s="16">
-        <v>94</v>
-      </c>
-      <c r="I12" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s" s="20">
-        <v>96</v>
-      </c>
-      <c r="C13" s="21">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s" s="19">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s" s="19">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s" s="19">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s" s="19">
-        <v>99</v>
-      </c>
-      <c r="I13" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="16">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s" s="17">
-        <v>101</v>
-      </c>
-      <c r="C14" s="18">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="16">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s" s="16">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s" s="16">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s" s="16">
-        <v>103</v>
-      </c>
-      <c r="I14" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="19">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s" s="20">
-        <v>105</v>
-      </c>
-      <c r="C15" s="21">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s" s="19">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s" s="19">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s" s="19">
-        <v>106</v>
-      </c>
-      <c r="H15" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="I15" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="16">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C16" s="18">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s" s="16">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s" s="16">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s" s="16">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s" s="16">
-        <v>111</v>
-      </c>
-      <c r="I16" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="19">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="C17" s="21">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s" s="19">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s" s="19">
-        <v>114</v>
-      </c>
-      <c r="G17" t="s" s="19">
-        <v>115</v>
-      </c>
-      <c r="H17" t="s" s="19">
-        <v>116</v>
-      </c>
-      <c r="I17" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="16">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s" s="17">
-        <v>118</v>
-      </c>
-      <c r="C18" s="18">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s" s="16">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s" s="16">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s" s="16">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s" s="16">
-        <v>120</v>
-      </c>
-      <c r="I18" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="19">
-        <v>121</v>
-      </c>
-      <c r="B19" t="s" s="19">
-        <v>122</v>
-      </c>
-      <c r="C19" s="21">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s" s="19">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s" s="19">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s" s="19">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s" s="19">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s" s="19">
-        <v>124</v>
-      </c>
-      <c r="I19" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="16">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s" s="16">
-        <v>126</v>
-      </c>
-      <c r="C20" s="18">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s" s="16">
-        <v>69</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" t="s" s="16">
-        <v>127</v>
-      </c>
-      <c r="G20" t="s" s="16">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s" s="16">
-        <v>128</v>
-      </c>
-      <c r="I20" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s" s="16">
-        <v>62</v>
-      </c>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="25">
-        <v>129</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="A22" t="s" s="27">
+        <v>139</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/journeyConfig/event模板信息.xlsx
+++ b/journeyConfig/event模板信息.xlsx
@@ -6,13 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>_id</t>
   </si>
@@ -180,258 +179,6 @@
   </si>
   <si>
     <t>8af0a754d4d442ceb1108ed64f54fda1</t>
-  </si>
-  <si>
-    <t>trailName</t>
-  </si>
-  <si>
-    <t>sortNumber</t>
-  </si>
-  <si>
-    <t>visibility</t>
-  </si>
-  <si>
-    <t>appointAccounts</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>deleted</t>
-  </si>
-  <si>
-    <t>_class</t>
-  </si>
-  <si>
-    <t>7284aa81985045f8bc2bdc0948a7b0d9</t>
-  </si>
-  <si>
-    <t>企微侧边栏</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>[List]</t>
-  </si>
-  <si>
-    <t>李兴勇</t>
-  </si>
-  <si>
-    <t>2021-07-23 16:16:48</t>
-  </si>
-  <si>
-    <t>2022-01-10 17:48:26</t>
-  </si>
-  <si>
-    <t>com.dustess.trail.domain.po.TrailManagePO</t>
-  </si>
-  <si>
-    <t>f8403867ac4a463692a8dee27a0c496a</t>
-  </si>
-  <si>
-    <t>雷达</t>
-  </si>
-  <si>
-    <t>2021-07-23 15:44:18</t>
-  </si>
-  <si>
-    <t>2022-01-10 17:48:17</t>
-  </si>
-  <si>
-    <t>123f7291478a489487f250e2b8482c33</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>胡茂林</t>
-  </si>
-  <si>
-    <t>2021-07-15 16:37:09</t>
-  </si>
-  <si>
-    <t>2022-01-10 11:05:25</t>
-  </si>
-  <si>
-    <t>102673c89f044f92801926ac126de509</t>
-  </si>
-  <si>
-    <t>短信</t>
-  </si>
-  <si>
-    <t>2021-08-13 15:22:36</t>
-  </si>
-  <si>
-    <t>20bd87de166844f6ab1a8b90aae5d263</t>
-  </si>
-  <si>
-    <t>跟进记录</t>
-  </si>
-  <si>
-    <t>2021-08-13 15:22:44</t>
-  </si>
-  <si>
-    <t>faa6088fb9b54712bd056f8ebc7555cc</t>
-  </si>
-  <si>
-    <t>签到记录</t>
-  </si>
-  <si>
-    <t>2021-08-13 15:49:44</t>
-  </si>
-  <si>
-    <t>4b99fe63c8584f34bd5b72904a34beda</t>
-  </si>
-  <si>
-    <t>企微聊天</t>
-  </si>
-  <si>
-    <t>2021-08-13 15:49:55</t>
-  </si>
-  <si>
-    <t>2021-08-13 15:50:26</t>
-  </si>
-  <si>
-    <t>2021-08-13 15:50:43</t>
-  </si>
-  <si>
-    <t>张伟</t>
-  </si>
-  <si>
-    <t>2021-08-13 15:50:48</t>
-  </si>
-  <si>
-    <t>2024-04-11 15:02:05</t>
-  </si>
-  <si>
-    <t>8ee81ec3f76447e386aa4b7b2eabc0c8</t>
-  </si>
-  <si>
-    <t>商城用户转化</t>
-  </si>
-  <si>
-    <t>李鹏</t>
-  </si>
-  <si>
-    <t>2021-08-30 11:29:33</t>
-  </si>
-  <si>
-    <t>2022-05-20 16:23:37</t>
-  </si>
-  <si>
-    <t>2327007c0c2a4f0791feb6b88af8a43d</t>
-  </si>
-  <si>
-    <t>客户咨询</t>
-  </si>
-  <si>
-    <t>appoint</t>
-  </si>
-  <si>
-    <t>2021-10-13 15:55:12</t>
-  </si>
-  <si>
-    <t>2022-01-10 11:31:17</t>
-  </si>
-  <si>
-    <t>7c0f9f6b74fe4aa8b2a919e7aa9bd594</t>
-  </si>
-  <si>
-    <t>病例沟通</t>
-  </si>
-  <si>
-    <t>2021-10-13 15:55:24</t>
-  </si>
-  <si>
-    <t>2022-01-10 11:31:43</t>
-  </si>
-  <si>
-    <t>6bfcca4b391f4bd1afcdc19051fc89a4</t>
-  </si>
-  <si>
-    <t>回访计划</t>
-  </si>
-  <si>
-    <t>2021-10-13 15:55:45</t>
-  </si>
-  <si>
-    <t>2022-01-10 11:31:49</t>
-  </si>
-  <si>
-    <t>9ca9b292b7494bef9839a4116ddefec1</t>
-  </si>
-  <si>
-    <t>病例沟通计划</t>
-  </si>
-  <si>
-    <t>2021-10-13 15:55:58</t>
-  </si>
-  <si>
-    <t>2022-01-10 11:31:55</t>
-  </si>
-  <si>
-    <t>6f2daba384b8487893e7d00835b55efd</t>
-  </si>
-  <si>
-    <t>openapi测试项目1</t>
-  </si>
-  <si>
-    <t>王文强</t>
-  </si>
-  <si>
-    <t>2022-03-25 16:58:10</t>
-  </si>
-  <si>
-    <t>2024-01-12 16:04:37</t>
-  </si>
-  <si>
-    <t>c89b6cb4a97f4aad8836175aceb50d14</t>
-  </si>
-  <si>
-    <t>同屏互动</t>
-  </si>
-  <si>
-    <t>2022-03-25 16:58:18</t>
-  </si>
-  <si>
-    <t>2022-12-28 10:26:49</t>
-  </si>
-  <si>
-    <t>54bcd4566a9145a1a9c0fda852f96785</t>
-  </si>
-  <si>
-    <t>关联好友</t>
-  </si>
-  <si>
-    <t>2022-07-25 16:27:47</t>
-  </si>
-  <si>
-    <t>2022-10-21 15:28:30</t>
-  </si>
-  <si>
-    <t>8fde1b80ec29492e86b6e1305f1bedea</t>
-  </si>
-  <si>
-    <t>广告信息</t>
-  </si>
-  <si>
-    <t>田锐锋</t>
-  </si>
-  <si>
-    <t>2024-03-07 22:55:01</t>
-  </si>
-  <si>
-    <t>正式的项目只有下面的截图所示（1号公司），上方标红的，需要看看配置，如果是测试租户可见，那就是测试数据，如果是指定正式租户可见，就是租户定制的，划掉的不需要了</t>
   </si>
 </sst>
 </file>
@@ -441,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -462,18 +209,8 @@
       <color indexed="9"/>
       <name val="Apple Braille"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="15"/>
-      <name val="等线"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,14 +235,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -609,125 +340,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,72 +395,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,61 +417,9 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa9cd90"/>
       <rgbColor rgb="ffe2eeda"/>
-      <rgbColor rgb="ff70ad47"/>
-      <rgbColor rgb="ffff0000"/>
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2295525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" descr="image1.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4673600"/>
-          <a:ext cx="10182225" cy="3305175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2264,902 +1765,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="47.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="16" customWidth="1"/>
-    <col min="3" max="5" width="10.8516" style="16" customWidth="1"/>
-    <col min="6" max="6" width="30.6719" style="16" customWidth="1"/>
-    <col min="7" max="7" width="36.6719" style="16" customWidth="1"/>
-    <col min="8" max="8" width="28.8516" style="16" customWidth="1"/>
-    <col min="9" max="9" width="34.3516" style="16" customWidth="1"/>
-    <col min="10" max="10" width="62.6719" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="10.8516" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="17">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s" s="17">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s" s="17">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s" s="17">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s" s="17">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s" s="17">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s" s="17">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s" s="17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="18">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s" s="19">
-        <v>66</v>
-      </c>
-      <c r="C2" s="20">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="18">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s" s="18">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s" s="18">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s" s="18">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s" s="18">
-        <v>71</v>
-      </c>
-      <c r="I2" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="21">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="C3" s="23">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="21">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s" s="21">
-        <v>69</v>
-      </c>
-      <c r="G3" t="s" s="21">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="21">
-        <v>76</v>
-      </c>
-      <c r="I3" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="18">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s" s="18">
-        <v>78</v>
-      </c>
-      <c r="C4" s="20">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="18">
-        <v>79</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s" s="18">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="18">
-        <v>82</v>
-      </c>
-      <c r="I4" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="21">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s" s="21">
-        <v>84</v>
-      </c>
-      <c r="C5" s="23">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="21">
-        <v>79</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" t="s" s="21">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s" s="21">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="I5" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="18">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s" s="18">
-        <v>87</v>
-      </c>
-      <c r="C6" s="20">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="18">
-        <v>79</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s" s="18">
-        <v>88</v>
-      </c>
-      <c r="H6" t="s" s="18">
-        <v>82</v>
-      </c>
-      <c r="I6" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="21">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s" s="21">
-        <v>90</v>
-      </c>
-      <c r="C7" s="23">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="21">
-        <v>79</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" t="s" s="21">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s" s="21">
-        <v>91</v>
-      </c>
-      <c r="H7" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="I7" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="18">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s" s="18">
-        <v>93</v>
-      </c>
-      <c r="C8" s="20">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="18">
-        <v>79</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s" s="18">
-        <v>94</v>
-      </c>
-      <c r="H8" t="s" s="18">
-        <v>82</v>
-      </c>
-      <c r="I8" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="C9" s="23">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="21">
-        <v>79</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" t="s" s="21">
-        <v>80</v>
-      </c>
-      <c r="G9" t="s" s="21">
-        <v>95</v>
-      </c>
-      <c r="H9" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="I9" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="18">
-        <v>12</v>
-      </c>
-      <c r="C10" s="20">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="18">
-        <v>79</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s" s="18">
-        <v>96</v>
-      </c>
-      <c r="H10" t="s" s="18">
-        <v>82</v>
-      </c>
-      <c r="I10" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="21">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s" s="21">
-        <v>52</v>
-      </c>
-      <c r="C11" s="23">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s" s="21">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s" s="21">
-        <v>98</v>
-      </c>
-      <c r="H11" t="s" s="21">
-        <v>99</v>
-      </c>
-      <c r="I11" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="18">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s" s="19">
-        <v>101</v>
-      </c>
-      <c r="C12" s="20">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="18">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s" s="18">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s" s="18">
-        <v>102</v>
-      </c>
-      <c r="G12" t="s" s="18">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s" s="18">
-        <v>104</v>
-      </c>
-      <c r="I12" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="21">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s" s="22">
-        <v>106</v>
-      </c>
-      <c r="C13" s="23">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="21">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s" s="21">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s" s="21">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s" s="21">
-        <v>109</v>
-      </c>
-      <c r="I13" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="18">
-        <v>110</v>
-      </c>
-      <c r="B14" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="C14" s="20">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="18">
-        <v>107</v>
-      </c>
-      <c r="E14" t="s" s="18">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s" s="18">
-        <v>112</v>
-      </c>
-      <c r="H14" t="s" s="18">
-        <v>113</v>
-      </c>
-      <c r="I14" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="21">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s" s="22">
-        <v>115</v>
-      </c>
-      <c r="C15" s="23">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s" s="21">
-        <v>107</v>
-      </c>
-      <c r="E15" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s" s="21">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s" s="21">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s" s="21">
-        <v>117</v>
-      </c>
-      <c r="I15" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="18">
-        <v>118</v>
-      </c>
-      <c r="B16" t="s" s="19">
-        <v>119</v>
-      </c>
-      <c r="C16" s="20">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s" s="18">
-        <v>107</v>
-      </c>
-      <c r="E16" t="s" s="18">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s" s="18">
-        <v>120</v>
-      </c>
-      <c r="H16" t="s" s="18">
-        <v>121</v>
-      </c>
-      <c r="I16" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="21">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s" s="22">
-        <v>123</v>
-      </c>
-      <c r="C17" s="23">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s" s="21">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s" s="21">
-        <v>124</v>
-      </c>
-      <c r="G17" t="s" s="21">
-        <v>125</v>
-      </c>
-      <c r="H17" t="s" s="21">
-        <v>126</v>
-      </c>
-      <c r="I17" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="18">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s" s="19">
-        <v>128</v>
-      </c>
-      <c r="C18" s="20">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s" s="18">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s" s="18">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s" s="18">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s" s="18">
-        <v>129</v>
-      </c>
-      <c r="H18" t="s" s="18">
-        <v>130</v>
-      </c>
-      <c r="I18" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="21">
-        <v>131</v>
-      </c>
-      <c r="B19" t="s" s="21">
-        <v>132</v>
-      </c>
-      <c r="C19" s="23">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s" s="21">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s" s="21">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s" s="21">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s" s="21">
-        <v>134</v>
-      </c>
-      <c r="I19" t="b" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s" s="21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="18">
-        <v>135</v>
-      </c>
-      <c r="B20" t="s" s="18">
-        <v>136</v>
-      </c>
-      <c r="C20" s="20">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s" s="18">
-        <v>79</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" t="s" s="18">
-        <v>137</v>
-      </c>
-      <c r="G20" t="s" s="18">
-        <v>138</v>
-      </c>
-      <c r="H20" t="s" s="18">
-        <v>138</v>
-      </c>
-      <c r="I20" t="b" s="20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s" s="18">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="27">
-        <v>139</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/journeyConfig/event模板信息.xlsx
+++ b/journeyConfig/event模板信息.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>_id</t>
   </si>
@@ -179,6 +179,42 @@
   </si>
   <si>
     <t>8af0a754d4d442ceb1108ed64f54fda1</t>
+  </si>
+  <si>
+    <t>df78d3775c514a8f8f98744c5ae3b104</t>
+  </si>
+  <si>
+    <t>手动更新了客户字段</t>
+  </si>
+  <si>
+    <t>smartEntityShow</t>
+  </si>
+  <si>
+    <t>0acec62535444646950471ccc5e78f7e</t>
+  </si>
+  <si>
+    <t>4d494da0a5e244a382278636b8a36df2</t>
+  </si>
+  <si>
+    <t>隐藏了智能标签</t>
+  </si>
+  <si>
+    <t>smartTagHide</t>
+  </si>
+  <si>
+    <t>75a04e7998c240ffa1a87bf77e7696af</t>
+  </si>
+  <si>
+    <t>31cd55c5677b436398ffbe16451ff334</t>
+  </si>
+  <si>
+    <t>显示了智能标签</t>
+  </si>
+  <si>
+    <t>smartTagShow</t>
+  </si>
+  <si>
+    <t>0c7c9a58d7bd48538701cc65e7504ff2</t>
   </si>
 </sst>
 </file>
@@ -236,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -340,13 +376,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,6 +505,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,7 +1590,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1758,6 +1897,69 @@
         <v>55</v>
       </c>
     </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="17">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="17">
+        <v>58</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" t="s" s="19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s" s="21">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s" s="21">
+        <v>62</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" t="s" s="21">
+        <v>12</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" t="s" s="22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="23">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s" s="24">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s" s="24">
+        <v>66</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" t="s" s="10">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
